--- a/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-30,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-20,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>114,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 20,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 37,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 42,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-79,31; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,37 +820,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,22</t>
+          <t>15,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,24</t>
+          <t>-30,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>217,6%</t>
+          <t>114,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 58,98</t>
+          <t>-24,18; 20,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 32,29</t>
+          <t>-30,51; 37,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 72,48</t>
+          <t>-21,16; 42,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,31; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,37 +920,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-9,85</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-19,31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-48,57</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,39; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,44; -5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,85</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-19,31</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-48,57</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-38,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>56,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-7,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>217,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 0,0</t>
+          <t>-19,27; 58,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-45,44; -5,92</t>
+          <t>-29,94; 32,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-13,74; 72,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">

--- a/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,63; 30,93</t>
+          <t>-85,08; 31,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,86; 0,0</t>
+          <t>-57,95; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,22; 0,0</t>
+          <t>-64,9; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 20,33</t>
+          <t>-27,32; 15,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 37,68</t>
+          <t>-27,13; 37,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 42,96</t>
+          <t>-19,67; 42,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-79,31; 0,0</t>
+          <t>-79,28; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 0,0</t>
+          <t>-48,17; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,44; -5,92</t>
+          <t>-46,7; -5,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 58,98</t>
+          <t>-18,86; 59,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 32,29</t>
+          <t>-36,07; 33,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 72,48</t>
+          <t>-14,31; 70,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 9,7</t>
+          <t>-14,89; 10,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 12,03</t>
+          <t>-19,59; 11,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 22,2</t>
+          <t>-19,59; 21,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 32,45</t>
+          <t>-32,13; 30,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 201,84</t>
+          <t>-86,03; 227,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,76; 121,5</t>
+          <t>-77,14; 110,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 263,39</t>
+          <t>-67,74; 194,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-96,42; 350,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,08; 31,47</t>
+          <t>-100,0; 30,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,95; 0,0</t>
+          <t>-57,93; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 0,0</t>
+          <t>-64,02; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 15,53</t>
+          <t>-26,48; 16,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 37,2</t>
+          <t>-31,45; 36,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 42,46</t>
+          <t>-19,26; 47,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-79,28; 0,0</t>
+          <t>-79,53; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 0,0</t>
+          <t>-43,54; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,7; -5,83</t>
+          <t>-42,81; -5,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 59,07</t>
+          <t>-18,85; 58,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 33,66</t>
+          <t>-33,59; 33,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 70,72</t>
+          <t>-12,98; 76,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 10,68</t>
+          <t>-14,36; 11,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 11,9</t>
+          <t>-18,15; 13,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 21,12</t>
+          <t>-19,1; 21,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 30,36</t>
+          <t>-31,1; 33,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 227,57</t>
+          <t>-83,77; 242,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 110,41</t>
+          <t>-71,14; 134,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,74; 194,88</t>
+          <t>-63,89; 214,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 426,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-22,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,3; 46,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,21; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,99; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,09</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,31</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,19</t>
+          <t>15,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,31</t>
+          <t>-29,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-58,54%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>30,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>114,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 30,27</t>
+          <t>-24,18; 20,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 0,0</t>
+          <t>-30,51; 37,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,02; 0,0</t>
+          <t>-21,16; 42,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,93</t>
+          <t>-79,95; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>-19,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,15</t>
+          <t>-48,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-30,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,89%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>114,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 16,79</t>
+          <t>-47,39; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 36,93</t>
+          <t>-45,44; -5,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 47,13</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,85</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,31</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,57</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-38,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>56,08%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-7,06%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>217,6%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 0,0</t>
+          <t>-19,27; 58,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,81; -5,81</t>
+          <t>-29,94; 32,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-13,74; 72,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,22</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-38,24</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>-20,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>-13,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>217,6%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-5,24%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 58,91</t>
+          <t>-15,7; 9,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 33,64</t>
+          <t>-16,98; 12,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 76,1</t>
+          <t>-20,88; 22,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,81; 31,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,34; 201,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,76; 121,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,46; 263,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,78; 337,47</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,82%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-13,84%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-3,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 11,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,15; 13,69</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-19,1; 21,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-31,1; 33,76</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-83,77; 242,47</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-71,14; 134,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-63,89; 214,07</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 426,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
